--- a/biology/Botanique/Hibiscus_Rose_de_Chine/Hibiscus_Rose_de_Chine.xlsx
+++ b/biology/Botanique/Hibiscus_Rose_de_Chine/Hibiscus_Rose_de_Chine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hibiscus rosa-sinensis
 L'Hibiscus Rose de Chine ou Ketmie (Hibiscus rosa-sinensis) est une espèce de plantes à fleurs de la famille des Malvaceae.
-C'est l'hibiscus le plus connu et il a été utilisé dans de nombreuses hybridations. Il est souvent utilisé comme symbole des îles Hawaii dont il est la fleur nationale ainsi que celle de la Malaisie[1]. Les premières variétés (doubles) ont été ramenées de Chine. Son nom latin y trouve son origine. Cependant, s'il est probable que la "rose de Chine" soit originaire des zones tropicales d'Asie du Sud-Est, ce n'est pas sûr. En effet, cette plante est présente, à la suite des échanges commerciaux, depuis des temps immémoriaux dans l'ensemble de la ceinture tropicale et, par ailleurs, aucun peuplement sauvage n'est connu. Ses origines restent donc incertaines.
+C'est l'hibiscus le plus connu et il a été utilisé dans de nombreuses hybridations. Il est souvent utilisé comme symbole des îles Hawaii dont il est la fleur nationale ainsi que celle de la Malaisie. Les premières variétés (doubles) ont été ramenées de Chine. Son nom latin y trouve son origine. Cependant, s'il est probable que la "rose de Chine" soit originaire des zones tropicales d'Asie du Sud-Est, ce n'est pas sûr. En effet, cette plante est présente, à la suite des échanges commerciaux, depuis des temps immémoriaux dans l'ensemble de la ceinture tropicale et, par ailleurs, aucun peuplement sauvage n'est connu. Ses origines restent donc incertaines.
 </t>
         </is>
       </c>
@@ -513,10 +525,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un arbuste ou petit arbre de 3 à 5 m de haut aux ramifications aérées.
-Les feuilles alternes d'un vert brillant mesurent de 6 à 10 cm de long. Les fleurs mesurent de 10 à 15 cm de diamètre . Chez l'espèce sauvage, ce sont des fleurs simples rouge-rose ; chez les espèces cultivées, ce sont des fleurs simples et doubles de couleur rouge, orange, jaune et blanche. Les fruits sont des capsules déhiscentes à cinq valves et graines nombreuses[2].
+Les feuilles alternes d'un vert brillant mesurent de 6 à 10 cm de long. Les fleurs mesurent de 10 à 15 cm de diamètre . Chez l'espèce sauvage, ce sont des fleurs simples rouge-rose ; chez les espèces cultivées, ce sont des fleurs simples et doubles de couleur rouge, orange, jaune et blanche. Les fruits sont des capsules déhiscentes à cinq valves et graines nombreuses.
 			Arbustes ou petits arbres.
 			Feuilles.
 			Arbuste avec une fleur rouge éclose.
@@ -549,7 +563,9 @@
           <t>Quelques variétés horticoles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Variété à fleurs rouges simples.
